--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225716.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 09:39:24</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 10:57:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225716.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 10:57:39</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 11:31:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 11:31:29</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 11:49:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225716.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 11:49:10</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 11:57:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225716.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 11:57:55</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:14:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222917.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:14:22</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:29:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222917.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:29:08</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:38:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:38:22</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:47:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:47:09</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:56:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:56:33</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 01:12:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 01:12:24</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 01:32:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 01:32:29</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 01:43:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 01:43:44</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 01:53:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 01:53:36</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:01:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:01:38</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:17:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222917.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:17:59</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:29:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222917.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:29:07</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:38:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:38:35</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:47:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:47:23</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:56:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:56:29</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:11:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:11:07</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:30:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:30:28</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:41:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:41:23</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:50:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:50:49</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:58:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:58:55</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:13:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:13:31</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:24:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:24:41</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:33:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:33:35</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:42:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:42:38</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:51:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:51:12</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:00:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:00:27</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:20:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:20:37</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:34:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:34:10</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:43:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:43:23</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:52:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:52:17</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:01:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:01:58</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:18:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:18:34</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:27:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:27:53</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:37:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:37:25</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:46:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225517.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:46:12</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:55:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225517.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:55:33</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:08:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:08:34</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:26:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:26:18</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:34:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:34:54</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:43:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:43:26</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:52:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:52:13</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:01:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:01:07</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:16:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:16:10</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:24:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:24:44</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:33:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:33:53</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:42:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:42:34</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:51:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:51:41</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 09:00:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222917.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 09:00:07</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 09:29:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222917.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 09:29:08</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 09:53:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 09:53:08</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 10:08:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 10:08:57</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 10:27:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223517.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 10:27:04</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 10:35:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223517.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 10:35:58</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 10:44:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 10:44:55</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 10:53:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 10:53:52</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:02:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221917.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:02:30</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:19:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221917.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:19:17</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:28:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:28:32</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:37:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:37:47</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:47:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225517.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:47:04</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:55:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225517.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:55:08</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:07:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:07:25</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:24:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:24:23</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:33:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:33:14</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:41:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:41:22</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:50:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225917.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:50:55</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 12:59:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225917.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 12:59:31</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 01:20:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223917.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 01:20:50</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 01:39:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223917.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 01:39:57</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 01:50:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 01:50:23</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 01:58:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 01:58:35</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:12:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:12:41</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:26:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:26:06</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:34:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:34:51</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:44:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:44:03</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 02:52:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 02:52:45</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:01:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:01:26</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:23:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:23:17</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:34:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:34:03</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:43:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:43:22</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 03:52:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 03:52:11</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:01:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221517.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:01:02</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:15:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221517.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222517.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:15:41</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:25:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222517.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:25:00</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:33:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:33:28</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:42:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:42:17</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 04:50:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 04:50:59</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:00:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:00:21</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:16:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:16:57</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:28:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:28:27</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:37:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:37:58</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:46:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225517.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:46:38</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 05:55:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225517.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 05:55:36</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:07:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:07:57</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:21:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:21:36</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:30:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223917.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:30:03</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:39:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223917.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:39:16</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:47:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:47:52</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 06:56:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225617.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 06:56:48</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:10:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222517.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:10:07</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:25:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222517.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:25:46</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:34:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:34:37</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:43:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:43:44</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 07:52:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225217.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 07:52:26</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:01:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220117.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:01:03</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:18:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222917.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:18:47</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:29:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222917.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223817.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:29:11</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:38:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223817.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:38:37</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:47:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-17.xlsx
+++ b/sigbm_download_2022-12-17.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224717.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225617.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 08:47:54</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 08:56:14</t>
   </si>
   <si>
     <t>ID Barragem</t>
